--- a/amzn_income.xlsx
+++ b/amzn_income.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="28160" windowHeight="16320" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="1060" windowWidth="28160" windowHeight="16320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated Statements Of Oper" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Dec. 31, 2017</t>
   </si>
@@ -108,15 +108,31 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Net Product Sales yoy</t>
+  </si>
+  <si>
+    <t>Net service sales yoy</t>
+  </si>
+  <si>
+    <t>Total net sales yoy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -154,33 +170,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -455,15 +474,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -527,8 +546,17 @@
       <c r="U1" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="V1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -591,7 +619,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -653,8 +681,20 @@
       <c r="U3" s="6">
         <v>274</v>
       </c>
+      <c r="V3" s="8">
+        <f>(B3-B2)/B2</f>
+        <v>0.1772562967544894</v>
+      </c>
+      <c r="W3" s="8">
+        <f t="shared" ref="W3:X6" si="0">(C3-C2)/C2</f>
+        <v>0.44754273504273506</v>
+      </c>
+      <c r="X3" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21866662301736697</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -716,8 +756,20 @@
       <c r="U4" s="6">
         <v>-241</v>
       </c>
+      <c r="V4" s="8">
+        <f t="shared" ref="V4:X7" si="1">(B4-B3)/B3</f>
+        <v>0.15068223240234471</v>
+      </c>
+      <c r="W4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.39552734519152705</v>
+      </c>
+      <c r="X4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19523988610111212</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -779,8 +831,20 @@
       <c r="U5" s="5">
         <v>596</v>
       </c>
+      <c r="V5" s="8">
+        <f t="shared" si="1"/>
+        <v>0.13110730593607306</v>
+      </c>
+      <c r="W5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.46699809604400255</v>
+      </c>
+      <c r="X5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20247673843664316</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -842,8 +906,20 @@
       <c r="U6" s="5">
         <v>2371</v>
       </c>
+      <c r="V6" s="8">
+        <f t="shared" si="1"/>
+        <v>0.19423979411616288</v>
+      </c>
+      <c r="W6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.48972528661042614</v>
+      </c>
+      <c r="X6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.27083528026465803</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -904,6 +980,18 @@
       </c>
       <c r="U7" s="5">
         <v>3033</v>
+      </c>
+      <c r="V7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.25255374214334758</v>
+      </c>
+      <c r="W7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.43490150525143989</v>
+      </c>
+      <c r="X7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.30796326119408474</v>
       </c>
     </row>
   </sheetData>

--- a/amzn_income.xlsx
+++ b/amzn_income.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
